--- a/Files/data/xlsx_data/Drafts/HAU_transects_2024.xlsx
+++ b/Files/data/xlsx_data/Drafts/HAU_transects_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\BirdnetProject\Files\data\xlsx_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\BirdnetProject\Files\data\xlsx_data\Drafts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1B4E00-2247-4B87-B8C9-71B239E4D83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDAFB9A-5F1C-415B-A46E-6AB9A898C2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{A68E7C4F-23C4-4DA4-ABF1-5919F7A0AABA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A68E7C4F-23C4-4DA4-ABF1-5919F7A0AABA}"/>
   </bookViews>
   <sheets>
     <sheet name="transects" sheetId="1" r:id="rId1"/>
@@ -177,10 +177,10 @@
     <t>House martin</t>
   </si>
   <si>
-    <t>Pied wagtail</t>
-  </si>
-  <si>
     <t>Kestrel</t>
+  </si>
+  <si>
+    <t>White wagtail</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
+      <selection pane="bottomLeft" activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B118">
         <v>8</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B121">
         <v>8</v>
